--- a/spliced/falling/2023-03-21_15-37-37/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-37/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8518548965454079</v>
+        <v>1.809551620483398</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.11153244972229</v>
+        <v>-2.747114396095276</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.974024677276608</v>
+        <v>-2.346350741386413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.7313633918762299</v>
+        <v>1.535980415344238</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.766938614845273</v>
+        <v>-2.904552030563355</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.49925755262375</v>
+        <v>-2.271616220474243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.322844505310054</v>
+        <v>1.500288486480713</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.311514568328858</v>
+        <v>-2.749492883682251</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.98325538635254</v>
+        <v>-1.919559156894683</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3075991153717006</v>
+        <v>1.063152790069579</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.543269753456111</v>
+        <v>-2.663525581359863</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.584808015823368</v>
+        <v>-1.874630331993103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.671347141265869</v>
+        <v>1.008758783340455</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0999624729156494</v>
+        <v>-2.917640089988708</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.535521984100342</v>
+        <v>-2.169865667819977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.258466720581057</v>
+        <v>0.8518548965454079</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.150174045562746</v>
+        <v>-3.11153244972229</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.508739709854125</v>
+        <v>-1.974024677276608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.284438991546638</v>
+        <v>-0.7313633918762299</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.87428689002991</v>
+        <v>-2.766938614845273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2990560531616238</v>
+        <v>-1.49925755262375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.352084398269707</v>
+        <v>-2.322844505310054</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.846620321273795</v>
+        <v>-2.311514568328858</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.800319671630887</v>
+        <v>-1.98325538635254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.565014839172318</v>
+        <v>0.3075991153717006</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.19008378982544</v>
+        <v>-2.543269753456111</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.534866142272937</v>
+        <v>-2.584808015823368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.5449800491333003</v>
+        <v>-1.671347141265869</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.96973985433578</v>
+        <v>0.0999624729156494</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.820678830146782</v>
+        <v>-4.535521984100342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4441701889038138</v>
+        <v>2.258466720581057</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.205912351608273</v>
+        <v>-3.150174045562746</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.574502897262589</v>
+        <v>-2.508739709854125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6093713760375863</v>
+        <v>-4.284438991546638</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.489246553182612</v>
+        <v>-5.87428689002991</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.765595197677606</v>
+        <v>0.2990560531616238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.423646736145025</v>
+        <v>3.352084398269707</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.778019905090329</v>
+        <v>-4.846620321273795</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.443504238128652</v>
+        <v>-3.800319671630887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.03008975982664</v>
+        <v>2.565014839172318</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.059792947769166</v>
+        <v>-4.19008378982544</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8526946783065815</v>
+        <v>-4.534866142272937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.929839134216309</v>
+        <v>-0.5449800491333003</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.365105152130127</v>
+        <v>-2.96973985433578</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.33200478553772</v>
+        <v>-1.820678830146782</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.200880432128908</v>
+        <v>0.4441701889038138</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.761867809295656</v>
+        <v>-1.205912351608273</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7659695267677282</v>
+        <v>-2.574502897262589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.088931465148925</v>
+        <v>0.6093713760375863</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.697214221954345</v>
+        <v>-1.489246553182612</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6586695432662961</v>
+        <v>-5.765595197677606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.876247692108153</v>
+        <v>-2.423646736145025</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.620123100280754</v>
+        <v>-3.778019905090329</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.525603616237647</v>
+        <v>-3.443504238128652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.824434280395508</v>
+        <v>-3.03008975982664</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.66638998985291</v>
+        <v>-3.059792947769166</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.212135457992547</v>
+        <v>-0.8526946783065815</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.478542327880858</v>
+        <v>1.929839134216309</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.946118712425232</v>
+        <v>-3.365105152130127</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.159464061260225</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.185040283203125</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.882479858398437</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.621251511573792</v>
+        <v>-1.33200478553772</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-37-37/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-37/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.809551620483398</v>
+        <v>1.327703475952148</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.747114396095276</v>
+        <v>-2.356002759933471</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.346350741386413</v>
+        <v>-1.412894463539124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.535980415344238</v>
+        <v>1.294596195220947</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.904552030563355</v>
+        <v>-2.42879855632782</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.271616220474243</v>
+        <v>-1.538487493991852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.500288486480713</v>
+        <v>1.5967435836792</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.749492883682251</v>
+        <v>-2.721291160583497</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.919559156894683</v>
+        <v>-1.309774732589722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.063152790069579</v>
+        <v>1.538975667953491</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.663525581359863</v>
+        <v>-3.117227482795715</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.874630331993103</v>
+        <v>-1.760656356811524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.008758783340455</v>
+        <v>1.350284004211427</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.917640089988708</v>
+        <v>-3.035107040405273</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.169865667819977</v>
+        <v>-2.307204818725585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8518548965454079</v>
+        <v>2.076921081542969</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.11153244972229</v>
+        <v>-3.024871301651001</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.974024677276608</v>
+        <v>-2.036388444900513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.7313633918762299</v>
+        <v>2.578349113464355</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.766938614845273</v>
+        <v>-2.735702991485596</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.49925755262375</v>
+        <v>-2.153444766998291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.322844505310054</v>
+        <v>1.809551620483398</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.311514568328858</v>
+        <v>-2.747114396095276</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.98325538635254</v>
+        <v>-2.346350741386413</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3075991153717006</v>
+        <v>1.535980415344238</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.543269753456111</v>
+        <v>-2.904552030563355</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.584808015823368</v>
+        <v>-2.271616220474243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.671347141265869</v>
+        <v>1.500288486480713</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0999624729156494</v>
+        <v>-2.749492883682251</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.535521984100342</v>
+        <v>-1.919559156894683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.258466720581057</v>
+        <v>1.063152790069579</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.150174045562746</v>
+        <v>-2.663525581359863</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.508739709854125</v>
+        <v>-1.874630331993103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.284438991546638</v>
+        <v>1.008758783340455</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.87428689002991</v>
+        <v>-2.917640089988708</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2990560531616238</v>
+        <v>-2.169865667819977</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.352084398269707</v>
+        <v>0.8518548965454079</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.846620321273795</v>
+        <v>-3.11153244972229</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.800319671630887</v>
+        <v>-1.974024677276608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.565014839172318</v>
+        <v>-0.7313633918762299</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.19008378982544</v>
+        <v>-2.766938614845273</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.534866142272937</v>
+        <v>-1.49925755262375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.5449800491333003</v>
+        <v>-2.322844505310054</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.96973985433578</v>
+        <v>-2.311514568328858</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.820678830146782</v>
+        <v>-1.98325538635254</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4441701889038138</v>
+        <v>0.3075991153717006</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.205912351608273</v>
+        <v>-2.543269753456111</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.574502897262589</v>
+        <v>-2.584808015823368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6093713760375863</v>
+        <v>-1.671347141265869</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.489246553182612</v>
+        <v>0.0999624729156494</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.765595197677606</v>
+        <v>-4.535521984100342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.423646736145025</v>
+        <v>2.258466720581057</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.778019905090329</v>
+        <v>-3.150174045562746</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.443504238128652</v>
+        <v>-2.508739709854125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.03008975982664</v>
+        <v>-4.284438991546638</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.059792947769166</v>
+        <v>-5.87428689002991</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8526946783065815</v>
+        <v>0.2990560531616238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3.352084398269707</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-4.846620321273795</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.800319671630887</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.565014839172318</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-4.19008378982544</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.534866142272937</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.5449800491333003</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.96973985433578</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.820678830146782</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4441701889038138</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.205912351608273</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.574502897262589</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.6093713760375863</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.489246553182612</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.765595197677606</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.423646736145025</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.778019905090329</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.443504238128652</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.03008975982664</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.059792947769166</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.8526946783065815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>1.929839134216309</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-3.365105152130127</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>-1.33200478553772</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.200880432128908</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.761867809295656</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7659695267677282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.088931465148925</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-3.697214221954345</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.6586695432662961</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.876247692108153</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.620123100280754</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.525603616237647</v>
       </c>
     </row>
   </sheetData>
